--- a/data/daily_volume.xlsx
+++ b/data/daily_volume.xlsx
@@ -102,15 +102,6 @@
     <t>日期</t>
   </si>
   <si>
-    <t>星期</t>
-  </si>
-  <si>
-    <t>紅線</t>
-  </si>
-  <si>
-    <t>橘線</t>
-  </si>
-  <si>
     <t>總運量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -124,6 +115,18 @@
   </si>
   <si>
     <t>變數3-颱風假</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紅線運量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>橘線運量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平/假日</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -576,8 +579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2164" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J2182" sqref="J2182"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -598,25 +601,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="F1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="G1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="H1" s="10" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">

--- a/data/daily_volume.xlsx
+++ b/data/daily_volume.xlsx
@@ -97,25 +97,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>日期</t>
-  </si>
-  <si>
-    <t>總運量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>變數1-特殊節日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>變數2-大型活動</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>變數3-颱風假</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>紅線運量</t>
@@ -127,6 +111,30 @@
   </si>
   <si>
     <t>平/假日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊節日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大型活動</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>颱風假</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年增率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>捷運總運量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>輕軌總運量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -577,10 +585,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2193"/>
+  <dimension ref="A1:J2193"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -589,40 +597,48 @@
     <col min="2" max="2" width="8.875" style="1"/>
     <col min="3" max="3" width="10.125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" style="1" customWidth="1"/>
     <col min="6" max="6" width="19.875" style="1" customWidth="1"/>
     <col min="7" max="7" width="18.875" style="1" customWidth="1"/>
     <col min="8" max="8" width="14.125" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.875" style="1"/>
+    <col min="9" max="9" width="10" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J1" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>43831</v>
       </c>
@@ -648,7 +664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>43832</v>
       </c>
@@ -674,7 +690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>43833</v>
       </c>
@@ -700,7 +716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>43834</v>
       </c>
@@ -726,7 +742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>43835</v>
       </c>
@@ -752,7 +768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>43836</v>
       </c>
@@ -778,7 +794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>43837</v>
       </c>
@@ -804,7 +820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>43838</v>
       </c>
@@ -830,7 +846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>43839</v>
       </c>
@@ -856,7 +872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>43840</v>
       </c>
@@ -882,7 +898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>43841</v>
       </c>
@@ -908,7 +924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>43842</v>
       </c>
@@ -934,7 +950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>43843</v>
       </c>
@@ -960,7 +976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>43844</v>
       </c>
@@ -986,7 +1002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>43845</v>
       </c>
@@ -52057,9 +52073,15 @@
       <c r="B1980" s="9">
         <v>7</v>
       </c>
-      <c r="C1980" s="9"/>
-      <c r="D1980" s="9"/>
-      <c r="E1980" s="9"/>
+      <c r="C1980" s="9">
+        <v>136899</v>
+      </c>
+      <c r="D1980" s="9">
+        <v>41402</v>
+      </c>
+      <c r="E1980" s="9">
+        <v>178301</v>
+      </c>
       <c r="F1980" s="2">
         <v>1</v>
       </c>
@@ -52077,9 +52099,15 @@
       <c r="B1981" s="9">
         <v>1</v>
       </c>
-      <c r="C1981" s="9"/>
-      <c r="D1981" s="9"/>
-      <c r="E1981" s="9"/>
+      <c r="C1981" s="9">
+        <v>131924</v>
+      </c>
+      <c r="D1981" s="9">
+        <v>41004</v>
+      </c>
+      <c r="E1981" s="9">
+        <v>172928</v>
+      </c>
       <c r="F1981" s="2">
         <v>0</v>
       </c>
@@ -52097,9 +52125,15 @@
       <c r="B1982" s="9">
         <v>2</v>
       </c>
-      <c r="C1982" s="9"/>
-      <c r="D1982" s="9"/>
-      <c r="E1982" s="9"/>
+      <c r="C1982" s="9">
+        <v>125174</v>
+      </c>
+      <c r="D1982" s="9">
+        <v>40225</v>
+      </c>
+      <c r="E1982" s="9">
+        <v>165399</v>
+      </c>
       <c r="F1982" s="2">
         <v>0</v>
       </c>
@@ -52117,9 +52151,15 @@
       <c r="B1983" s="9">
         <v>3</v>
       </c>
-      <c r="C1983" s="9"/>
-      <c r="D1983" s="9"/>
-      <c r="E1983" s="9"/>
+      <c r="C1983" s="9">
+        <v>131445</v>
+      </c>
+      <c r="D1983" s="9">
+        <v>42844</v>
+      </c>
+      <c r="E1983" s="9">
+        <v>174289</v>
+      </c>
       <c r="F1983" s="2">
         <v>0</v>
       </c>
@@ -52137,9 +52177,15 @@
       <c r="B1984" s="9">
         <v>4</v>
       </c>
-      <c r="C1984" s="9"/>
-      <c r="D1984" s="9"/>
-      <c r="E1984" s="9"/>
+      <c r="C1984" s="9">
+        <v>130201</v>
+      </c>
+      <c r="D1984" s="9">
+        <v>41420</v>
+      </c>
+      <c r="E1984" s="9">
+        <v>171621</v>
+      </c>
       <c r="F1984" s="2">
         <v>0</v>
       </c>
@@ -52157,9 +52203,15 @@
       <c r="B1985" s="9">
         <v>5</v>
       </c>
-      <c r="C1985" s="9"/>
-      <c r="D1985" s="9"/>
-      <c r="E1985" s="9"/>
+      <c r="C1985" s="9">
+        <v>159435</v>
+      </c>
+      <c r="D1985" s="9">
+        <v>49331</v>
+      </c>
+      <c r="E1985" s="9">
+        <v>208766</v>
+      </c>
       <c r="F1985" s="2">
         <v>0</v>
       </c>
@@ -52177,9 +52229,15 @@
       <c r="B1986" s="9">
         <v>6</v>
       </c>
-      <c r="C1986" s="9"/>
-      <c r="D1986" s="9"/>
-      <c r="E1986" s="9"/>
+      <c r="C1986" s="9">
+        <v>150647</v>
+      </c>
+      <c r="D1986" s="9">
+        <v>47139</v>
+      </c>
+      <c r="E1986" s="9">
+        <v>197786</v>
+      </c>
       <c r="F1986" s="2">
         <v>0</v>
       </c>
@@ -52197,9 +52255,15 @@
       <c r="B1987" s="9">
         <v>7</v>
       </c>
-      <c r="C1987" s="9"/>
-      <c r="D1987" s="9"/>
-      <c r="E1987" s="9"/>
+      <c r="C1987" s="9">
+        <v>136981</v>
+      </c>
+      <c r="D1987" s="9">
+        <v>41403</v>
+      </c>
+      <c r="E1987" s="9">
+        <v>178384</v>
+      </c>
       <c r="F1987" s="2">
         <v>0</v>
       </c>
@@ -52217,9 +52281,15 @@
       <c r="B1988" s="9">
         <v>1</v>
       </c>
-      <c r="C1988" s="9"/>
-      <c r="D1988" s="9"/>
-      <c r="E1988" s="9"/>
+      <c r="C1988" s="9">
+        <v>131335</v>
+      </c>
+      <c r="D1988" s="9">
+        <v>40651</v>
+      </c>
+      <c r="E1988" s="9">
+        <v>171986</v>
+      </c>
       <c r="F1988" s="2">
         <v>0</v>
       </c>
@@ -52237,9 +52307,15 @@
       <c r="B1989" s="9">
         <v>2</v>
       </c>
-      <c r="C1989" s="9"/>
-      <c r="D1989" s="9"/>
-      <c r="E1989" s="9"/>
+      <c r="C1989" s="9">
+        <v>131530</v>
+      </c>
+      <c r="D1989" s="9">
+        <v>40819</v>
+      </c>
+      <c r="E1989" s="9">
+        <v>172349</v>
+      </c>
       <c r="F1989" s="2">
         <v>0</v>
       </c>
@@ -52257,9 +52333,15 @@
       <c r="B1990" s="9">
         <v>3</v>
       </c>
-      <c r="C1990" s="9"/>
-      <c r="D1990" s="9"/>
-      <c r="E1990" s="9"/>
+      <c r="C1990" s="9">
+        <v>133523</v>
+      </c>
+      <c r="D1990" s="9">
+        <v>41491</v>
+      </c>
+      <c r="E1990" s="9">
+        <v>175914</v>
+      </c>
       <c r="F1990" s="2">
         <v>0</v>
       </c>
@@ -52277,9 +52359,15 @@
       <c r="B1991" s="9">
         <v>4</v>
       </c>
-      <c r="C1991" s="9"/>
-      <c r="D1991" s="9"/>
-      <c r="E1991" s="9"/>
+      <c r="C1991" s="9">
+        <v>129546</v>
+      </c>
+      <c r="D1991" s="9">
+        <v>40996</v>
+      </c>
+      <c r="E1991" s="9">
+        <v>170542</v>
+      </c>
       <c r="F1991" s="2">
         <v>0</v>
       </c>
@@ -52297,9 +52385,15 @@
       <c r="B1992" s="9">
         <v>5</v>
       </c>
-      <c r="C1992" s="2"/>
-      <c r="D1992" s="2"/>
-      <c r="E1992" s="2"/>
+      <c r="C1992" s="2">
+        <v>135315</v>
+      </c>
+      <c r="D1992" s="2">
+        <v>41912</v>
+      </c>
+      <c r="E1992" s="2">
+        <v>177227</v>
+      </c>
       <c r="F1992" s="2">
         <v>0</v>
       </c>
@@ -52317,9 +52411,15 @@
       <c r="B1993" s="9">
         <v>6</v>
       </c>
-      <c r="C1993" s="2"/>
-      <c r="D1993" s="2"/>
-      <c r="E1993" s="2"/>
+      <c r="C1993" s="2">
+        <v>138028</v>
+      </c>
+      <c r="D1993" s="2">
+        <v>42688</v>
+      </c>
+      <c r="E1993" s="2">
+        <v>180716</v>
+      </c>
       <c r="F1993" s="2">
         <v>0</v>
       </c>
@@ -52337,9 +52437,15 @@
       <c r="B1994" s="9">
         <v>7</v>
       </c>
-      <c r="C1994" s="2"/>
-      <c r="D1994" s="2"/>
-      <c r="E1994" s="2"/>
+      <c r="C1994" s="2">
+        <v>133749</v>
+      </c>
+      <c r="D1994" s="2">
+        <v>38317</v>
+      </c>
+      <c r="E1994" s="2">
+        <v>172066</v>
+      </c>
       <c r="F1994" s="2">
         <v>0</v>
       </c>
@@ -52357,9 +52463,15 @@
       <c r="B1995" s="9">
         <v>1</v>
       </c>
-      <c r="C1995" s="2"/>
-      <c r="D1995" s="2"/>
-      <c r="E1995" s="2"/>
+      <c r="C1995" s="2">
+        <v>129148</v>
+      </c>
+      <c r="D1995" s="2">
+        <v>39020</v>
+      </c>
+      <c r="E1995" s="2">
+        <v>168160</v>
+      </c>
       <c r="F1995" s="2">
         <v>0</v>
       </c>
@@ -52377,9 +52489,15 @@
       <c r="B1996" s="9">
         <v>2</v>
       </c>
-      <c r="C1996" s="2"/>
-      <c r="D1996" s="2"/>
-      <c r="E1996" s="2"/>
+      <c r="C1996" s="2">
+        <v>130382</v>
+      </c>
+      <c r="D1996" s="2">
+        <v>40593</v>
+      </c>
+      <c r="E1996" s="2">
+        <v>170975</v>
+      </c>
       <c r="F1996" s="2">
         <v>0</v>
       </c>
@@ -52397,9 +52515,15 @@
       <c r="B1997" s="9">
         <v>3</v>
       </c>
-      <c r="C1997" s="2"/>
-      <c r="D1997" s="2"/>
-      <c r="E1997" s="2"/>
+      <c r="C1997" s="2">
+        <v>132374</v>
+      </c>
+      <c r="D1997" s="2">
+        <v>42469</v>
+      </c>
+      <c r="E1997" s="2">
+        <v>174843</v>
+      </c>
       <c r="F1997" s="2">
         <v>0</v>
       </c>

--- a/data/daily_volume.xlsx
+++ b/data/daily_volume.xlsx
@@ -587,8 +587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2193"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="A1987" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I2011" sqref="I2011"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -62357,9 +62357,15 @@
       <c r="B1999" s="9">
         <v>5</v>
       </c>
-      <c r="C1999" s="2"/>
-      <c r="D1999" s="2"/>
-      <c r="E1999" s="2"/>
+      <c r="C1999" s="2">
+        <v>158368</v>
+      </c>
+      <c r="D1999" s="2">
+        <v>48036</v>
+      </c>
+      <c r="E1999" s="2">
+        <v>206404</v>
+      </c>
       <c r="F1999" s="2">
         <v>0</v>
       </c>
@@ -62372,7 +62378,9 @@
       <c r="I1999" s="2">
         <v>0</v>
       </c>
-      <c r="J1999" s="3"/>
+      <c r="J1999" s="3">
+        <v>31786</v>
+      </c>
     </row>
     <row r="2000" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2000" s="8">
@@ -62381,9 +62389,15 @@
       <c r="B2000" s="9">
         <v>6</v>
       </c>
-      <c r="C2000" s="2"/>
-      <c r="D2000" s="2"/>
-      <c r="E2000" s="2"/>
+      <c r="C2000" s="2">
+        <v>150143</v>
+      </c>
+      <c r="D2000" s="2">
+        <v>48363</v>
+      </c>
+      <c r="E2000" s="2">
+        <v>198506</v>
+      </c>
       <c r="F2000" s="2">
         <v>0</v>
       </c>
@@ -62396,7 +62410,9 @@
       <c r="I2000" s="2">
         <v>1</v>
       </c>
-      <c r="J2000" s="3"/>
+      <c r="J2000" s="3">
+        <v>38205</v>
+      </c>
     </row>
     <row r="2001" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2001" s="8">
@@ -62405,9 +62421,15 @@
       <c r="B2001" s="9">
         <v>7</v>
       </c>
-      <c r="C2001" s="2"/>
-      <c r="D2001" s="2"/>
-      <c r="E2001" s="2"/>
+      <c r="C2001" s="2">
+        <v>131018</v>
+      </c>
+      <c r="D2001" s="2">
+        <v>43397</v>
+      </c>
+      <c r="E2001" s="2">
+        <v>174415</v>
+      </c>
       <c r="F2001" s="2">
         <v>0</v>
       </c>
@@ -62420,7 +62442,9 @@
       <c r="I2001" s="2">
         <v>1</v>
       </c>
-      <c r="J2001" s="3"/>
+      <c r="J2001" s="3">
+        <v>33411</v>
+      </c>
     </row>
     <row r="2002" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2002" s="8">
